--- a/504文档/招生/第二轮通知确认结果.xlsx
+++ b/504文档/招生/第二轮通知确认结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="77">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -156,150 +156,154 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>放弃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>硕博</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>不确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李亚武</t>
+  </si>
+  <si>
+    <t>本科</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中南民大</t>
+  </si>
+  <si>
+    <t>liyawu913@foxmail.com</t>
+  </si>
+  <si>
+    <t>13294178152/18271933065</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁非雪</t>
+  </si>
+  <si>
+    <t>安徽大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lufeixue26@163.com</t>
+  </si>
+  <si>
+    <t>梁秀敏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京化工大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高分子材料与工程专业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18911938852@163.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁小蝶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料学院高分子材料专业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2635261163@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李泽宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国科学技术大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hbsjzlzb@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘思达</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南昌航空大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1009010161@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王洪玉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁大学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料化学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2609830804@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁亚飞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰州理工大学校本部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高分子材料与工程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1943169330@qq.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>放弃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>硕博</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不确定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李亚武</t>
-  </si>
-  <si>
-    <t>本科</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中南民大</t>
-  </si>
-  <si>
-    <t>liyawu913@foxmail.com</t>
-  </si>
-  <si>
-    <t>13294178152/18271933065</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲁非雪</t>
-  </si>
-  <si>
-    <t>安徽大学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lufeixue26@163.com</t>
-  </si>
-  <si>
-    <t>梁秀敏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京化工大学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高分子材料与工程专业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18911938852@163.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁小蝶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖北大学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料学院高分子材料专业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2635261163@qq.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李泽宝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国科学技术大学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>化学系</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hbsjzlzb@qq.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘思达</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>南昌航空大学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1009010161@qq.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王洪玉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>辽宁大学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料化学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2609830804@qq.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁亚飞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本科</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰州理工大学校本部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高分子材料与工程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1943169330@qq.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -749,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -839,7 +843,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
@@ -863,7 +867,7 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="4" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
@@ -911,7 +915,7 @@
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
@@ -961,31 +965,33 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="F9" s="12">
+        <v>18119495686</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="12">
-        <v>18119495686</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="11"/>
+      <c r="I9" s="11"/>
     </row>
   </sheetData>
   <sortState ref="A7:H7">
@@ -1001,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1015,195 +1021,195 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>46</v>
-      </c>
       <c r="G1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="I1" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="9">
         <v>15156214484</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="F3" s="9">
         <v>18911938852</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="I3" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="F4" s="9">
         <v>18202778868</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="F5" s="9">
         <v>15955150087</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="F6" s="9">
         <v>18770004360</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="F7" s="9">
         <v>18304031680</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
